--- a/src/main/java/com/aia/join/qa/testdata/JoinData.xlsx
+++ b/src/main/java/com/aia/join/qa/testdata/JoinData.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pc" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="bgPage" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="payment" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t xml:space="preserve">prefix</t>
   </si>
@@ -138,6 +139,18 @@
   </si>
   <si>
     <t xml:space="preserve">Alaska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameOnCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CardNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">securityCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test test</t>
   </si>
 </sst>
 </file>
@@ -228,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,11 +250,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,7 +282,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -280,7 +297,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.13"/>
@@ -288,16 +305,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
@@ -336,7 +353,7 @@
       <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="0" t="s">
@@ -371,7 +388,7 @@
       <c r="G2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -405,7 +422,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="1" t="n">
         <v>123</v>
       </c>
       <c r="T2" s="0" t="n">
@@ -431,42 +448,94 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="14.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5232000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4222019</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>123456</v>
+        <v>4111111111111110</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>5232000</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>4222019</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/aia/join/qa/testdata/JoinData.xlsx
+++ b/src/main/java/com/aia/join/qa/testdata/JoinData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t xml:space="preserve">prefix</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t xml:space="preserve">test test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.111111111111111E+15</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,7 +292,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.37"/>
@@ -454,8 +457,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="14.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -463,7 +465,7 @@
       <c r="A1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -477,7 +479,7 @@
       <c r="A2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -509,10 +511,10 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -520,7 +522,7 @@
       <c r="A1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -531,8 +533,8 @@
       <c r="A2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>4111111111111110</v>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>123</v>
